--- a/CnMedicine/规范数据表.xlsx
+++ b/CnMedicine/规范数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13020"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="评分表1" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,68 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zhangchong</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zhangchong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+        /// &lt;summary&gt;
+        /// 对选择题，有此标志为多选，无此标志为单选题。
+        /// &lt;/summary&gt;
+        Multi = 1,
+        /// &lt;summary&gt;
+        /// 有该标志，这个问题不填写答案，否则需要填写。
+        /// &lt;/summary&gt;
+        AllowEmpty = 2,
+        /// &lt;summary&gt;
+        /// 获得子类型的掩码。
+        /// &lt;/summary&gt;
+        SubKindMask = 255,
+        /// &lt;summary&gt;
+        /// 判断题。
+        /// &lt;/summary&gt;
+        Judgment = 256,
+        /// &lt;summary&gt;
+        /// 选择题。单选题。
+        /// &lt;/summary&gt;
+        Choice = 512,
+        /// &lt;summary&gt;
+        /// 多选题。
+        /// &lt;/summary&gt;
+        MultiChoice = Choice + Multi,
+        /// &lt;summary&gt;
+        /// 问答题。
+        /// &lt;/summary&gt;
+        Describe = 1024,
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="652">
   <si>
@@ -2320,7 +2382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2371,6 +2433,19 @@
       <color rgb="FF444444"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2712,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -6814,11 +6889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6894,8 +6969,8 @@
         <v>6</v>
       </c>
       <c r="G4" t="str">
-        <f>"编号:" &amp;A4</f>
-        <v>编号:1</v>
+        <f>"编号" &amp;A4</f>
+        <v>编号1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -6918,8 +6993,8 @@
         <v>9</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G68" si="0">"编号:" &amp;A5</f>
-        <v>编号:2</v>
+        <f t="shared" ref="G5:G68" si="0">"编号" &amp;A5</f>
+        <v>编号2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -6943,7 +7018,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>编号:3</v>
+        <v>编号3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -6967,7 +7042,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>编号:4</v>
+        <v>编号4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -6991,7 +7066,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>编号:5</v>
+        <v>编号5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -7015,7 +7090,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>编号:6</v>
+        <v>编号6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -7039,7 +7114,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>编号:7</v>
+        <v>编号7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -7063,7 +7138,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>编号:8</v>
+        <v>编号8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -7087,7 +7162,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>编号:9</v>
+        <v>编号9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -7111,7 +7186,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>编号:10</v>
+        <v>编号10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7135,7 +7210,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>编号:11</v>
+        <v>编号11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7159,7 +7234,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>编号:12</v>
+        <v>编号12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -7183,7 +7258,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>编号:13</v>
+        <v>编号13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7201,7 +7276,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>编号:14</v>
+        <v>编号14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -7225,7 +7300,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>编号:15</v>
+        <v>编号15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -7249,7 +7324,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>编号:16</v>
+        <v>编号16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -7273,7 +7348,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>编号:17</v>
+        <v>编号17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -7294,7 +7369,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>编号:18</v>
+        <v>编号18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -7318,7 +7393,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>编号:19</v>
+        <v>编号19</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -7342,7 +7417,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>编号:20</v>
+        <v>编号20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -7366,7 +7441,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>编号:21</v>
+        <v>编号21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -7384,7 +7459,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>编号:22</v>
+        <v>编号22</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -7408,7 +7483,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>编号:23</v>
+        <v>编号23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -7432,7 +7507,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>编号:24</v>
+        <v>编号24</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -7453,7 +7528,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>编号:25</v>
+        <v>编号25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -7477,7 +7552,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>编号:26</v>
+        <v>编号26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -7501,7 +7576,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>编号:27</v>
+        <v>编号27</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -7525,7 +7600,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>编号:28</v>
+        <v>编号28</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -7549,7 +7624,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>编号:29</v>
+        <v>编号29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -7573,7 +7648,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>编号:30</v>
+        <v>编号30</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -7597,7 +7672,7 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>编号:31</v>
+        <v>编号31</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -7621,7 +7696,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>编号:32</v>
+        <v>编号32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -7645,7 +7720,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>编号:33</v>
+        <v>编号33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -7669,7 +7744,7 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>编号:34</v>
+        <v>编号34</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -7693,7 +7768,7 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>编号:35</v>
+        <v>编号35</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -7717,7 +7792,7 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>编号:36</v>
+        <v>编号36</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -7741,7 +7816,7 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>编号:37</v>
+        <v>编号37</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -7765,7 +7840,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>编号:38</v>
+        <v>编号38</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -7789,7 +7864,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>编号:39</v>
+        <v>编号39</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -7810,7 +7885,7 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>编号:40</v>
+        <v>编号40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -7834,7 +7909,7 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>编号:41</v>
+        <v>编号41</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -7858,7 +7933,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>编号:42</v>
+        <v>编号42</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -7882,7 +7957,7 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>编号:43</v>
+        <v>编号43</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -7906,7 +7981,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>编号:44</v>
+        <v>编号44</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -7930,7 +8005,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>编号:45</v>
+        <v>编号45</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -7954,7 +8029,7 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>编号:46</v>
+        <v>编号46</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -7978,7 +8053,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>编号:47</v>
+        <v>编号47</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -7999,7 +8074,7 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>编号:48</v>
+        <v>编号48</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -8023,7 +8098,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>编号:49</v>
+        <v>编号49</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -8047,7 +8122,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>编号:50</v>
+        <v>编号50</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -8071,7 +8146,7 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>编号:51</v>
+        <v>编号51</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -8095,7 +8170,7 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>编号:52</v>
+        <v>编号52</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -8119,7 +8194,7 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>编号:53</v>
+        <v>编号53</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -8143,7 +8218,7 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>编号:54</v>
+        <v>编号54</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -8167,7 +8242,7 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>编号:55</v>
+        <v>编号55</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -8191,7 +8266,7 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>编号:56</v>
+        <v>编号56</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -8215,7 +8290,7 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>编号:57</v>
+        <v>编号57</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -8239,7 +8314,7 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>编号:58</v>
+        <v>编号58</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -8263,7 +8338,7 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>编号:59</v>
+        <v>编号59</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -8287,7 +8362,7 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>编号:60</v>
+        <v>编号60</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -8311,7 +8386,7 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>编号:61</v>
+        <v>编号61</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -8332,7 +8407,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>编号:62</v>
+        <v>编号62</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -8356,7 +8431,7 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>编号:63</v>
+        <v>编号63</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -8380,7 +8455,7 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>编号:64</v>
+        <v>编号64</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -8401,7 +8476,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
-        <v>编号:65</v>
+        <v>编号65</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -8424,8 +8499,8 @@
         <v>168</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69:G129" si="1">"编号:" &amp;A69</f>
-        <v>编号:66</v>
+        <f t="shared" ref="G69:G129" si="1">"编号" &amp;A69</f>
+        <v>编号66</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -8449,7 +8524,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>编号:67</v>
+        <v>编号67</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -8473,7 +8548,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>编号:68</v>
+        <v>编号68</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -8497,7 +8572,7 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>编号:69</v>
+        <v>编号69</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -8521,7 +8596,7 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>编号:70</v>
+        <v>编号70</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -8545,7 +8620,7 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>编号:71</v>
+        <v>编号71</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -8569,7 +8644,7 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>编号:72</v>
+        <v>编号72</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -8593,7 +8668,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>编号:73</v>
+        <v>编号73</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -8617,7 +8692,7 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>编号:74</v>
+        <v>编号74</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -8641,7 +8716,7 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>编号:75</v>
+        <v>编号75</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -8665,7 +8740,7 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>编号:76</v>
+        <v>编号76</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -8689,7 +8764,7 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>编号:77</v>
+        <v>编号77</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -8713,7 +8788,7 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>编号:78</v>
+        <v>编号78</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -8737,7 +8812,7 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>编号:79</v>
+        <v>编号79</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -8761,7 +8836,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>编号:80</v>
+        <v>编号80</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -8785,7 +8860,7 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>编号:81</v>
+        <v>编号81</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -8809,7 +8884,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>编号:82</v>
+        <v>编号82</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -8833,7 +8908,7 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>编号:83</v>
+        <v>编号83</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -8857,7 +8932,7 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>编号:84</v>
+        <v>编号84</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -8881,7 +8956,7 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>编号:85</v>
+        <v>编号85</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -8905,7 +8980,7 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>编号:86</v>
+        <v>编号86</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -8929,7 +9004,7 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>编号:87</v>
+        <v>编号87</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -8953,7 +9028,7 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>编号:88</v>
+        <v>编号88</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -8977,7 +9052,7 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>编号:89</v>
+        <v>编号89</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -9001,7 +9076,7 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>编号:90</v>
+        <v>编号90</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -9022,7 +9097,7 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>编号:91</v>
+        <v>编号91</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -9046,7 +9121,7 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>编号:92</v>
+        <v>编号92</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -9070,7 +9145,7 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>编号:93</v>
+        <v>编号93</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -9094,7 +9169,7 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>编号:94</v>
+        <v>编号94</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -9118,7 +9193,7 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>编号:95</v>
+        <v>编号95</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -9142,7 +9217,7 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>编号:96</v>
+        <v>编号96</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -9166,7 +9241,7 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>编号:97</v>
+        <v>编号97</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -9190,7 +9265,7 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>编号:98</v>
+        <v>编号98</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -9214,7 +9289,7 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>编号:99</v>
+        <v>编号99</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -9238,7 +9313,7 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>编号:100</v>
+        <v>编号100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -9262,7 +9337,7 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>编号:101</v>
+        <v>编号101</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -9286,7 +9361,7 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>编号:102</v>
+        <v>编号102</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -9304,7 +9379,7 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>编号:103</v>
+        <v>编号103</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -9325,7 +9400,7 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>编号:104</v>
+        <v>编号104</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -9346,7 +9421,7 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>编号:105</v>
+        <v>编号105</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -9367,7 +9442,7 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>编号:106</v>
+        <v>编号106</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -9388,7 +9463,7 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
-        <v>编号:107</v>
+        <v>编号107</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -9409,7 +9484,7 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
-        <v>编号:108</v>
+        <v>编号108</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -9430,7 +9505,7 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
-        <v>编号:109</v>
+        <v>编号109</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -9451,7 +9526,7 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>编号:110</v>
+        <v>编号110</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -9472,7 +9547,7 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>编号:111</v>
+        <v>编号111</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -9493,7 +9568,7 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
-        <v>编号:112</v>
+        <v>编号112</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -9511,7 +9586,7 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
-        <v>编号:113</v>
+        <v>编号113</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -9532,7 +9607,7 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
-        <v>编号:114</v>
+        <v>编号114</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -9553,7 +9628,7 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
-        <v>编号:115</v>
+        <v>编号115</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -9574,7 +9649,7 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
-        <v>编号:116</v>
+        <v>编号116</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -9595,7 +9670,7 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
-        <v>编号:117</v>
+        <v>编号117</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -9616,7 +9691,7 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
-        <v>编号:118</v>
+        <v>编号118</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -9637,7 +9712,7 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
-        <v>编号:119</v>
+        <v>编号119</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -9661,7 +9736,7 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
-        <v>编号:120</v>
+        <v>编号120</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -9685,7 +9760,7 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
-        <v>编号:121</v>
+        <v>编号121</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -9709,7 +9784,7 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
-        <v>编号:122</v>
+        <v>编号122</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -9730,7 +9805,7 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
-        <v>编号:123</v>
+        <v>编号123</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -9751,7 +9826,7 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
-        <v>编号:124</v>
+        <v>编号124</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -9772,7 +9847,7 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
-        <v>编号:125</v>
+        <v>编号125</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -9793,13 +9868,14 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
-        <v>编号:126</v>
+        <v>编号126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CnMedicine/规范数据表.xlsx
+++ b/CnMedicine/规范数据表.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="653">
   <si>
     <t>编号</t>
   </si>
@@ -2375,6 +2375,10 @@
   </si>
   <si>
     <t>九月生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6890,10 +6894,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6929,7 +6933,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B2" t="s">
         <v>623</v>
@@ -6940,10 +6944,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B3" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="D3">
         <v>1024</v>
@@ -6951,2922 +6955,2933 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>624</v>
       </c>
       <c r="D4">
-        <v>512</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="str">
-        <f>"编号" &amp;A4</f>
-        <v>编号1</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>512</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G68" si="0">"编号" &amp;A5</f>
-        <v>编号2</v>
+        <f>"编号" &amp;A5</f>
+        <v>编号1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>512</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G69" si="0">"编号" &amp;A6</f>
+        <v>编号2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>编号3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>599</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>512</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>编号4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>600</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>513</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9">
+        <v>513</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>编号5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>600</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>513</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D10">
+        <v>513</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>编号6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>600</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>513</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11">
+        <v>513</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>编号7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>600</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>513</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12">
+        <v>513</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>编号8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>600</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>513</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13">
+        <v>513</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>编号9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>600</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D13">
-        <v>513</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14">
+        <v>513</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>编号10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>601</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D14">
-        <v>513</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15">
+        <v>513</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>编号11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>601</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D15">
-        <v>513</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16">
+        <v>513</v>
+      </c>
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>编号12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>601</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D16">
-        <v>513</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17">
+        <v>513</v>
+      </c>
+      <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>编号13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>601</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="D17">
-        <v>513</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="D18">
+        <v>513</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>编号14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>602</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D18">
-        <v>513</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D19">
+        <v>513</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>编号15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>602</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D19">
-        <v>513</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D20">
+        <v>513</v>
+      </c>
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>编号16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>603</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D20">
-        <v>513</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21">
+        <v>513</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>47</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>编号17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>603</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D21">
-        <v>513</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D22">
+        <v>513</v>
+      </c>
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>编号18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>603</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="D22">
-        <v>513</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23">
+        <v>513</v>
+      </c>
+      <c r="E23" t="s">
         <v>51</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>52</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>编号19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>604</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="D23">
-        <v>513</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24">
+        <v>513</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>编号20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>604</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="D24">
-        <v>513</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D25">
+        <v>513</v>
+      </c>
+      <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>编号21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>604</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="D25">
-        <v>513</v>
-      </c>
-      <c r="G25" t="str">
+      <c r="D26">
+        <v>513</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>编号22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>604</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="D26">
-        <v>513</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27">
+        <v>513</v>
+      </c>
+      <c r="E27" t="s">
         <v>61</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>62</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>编号23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>604</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="D27">
-        <v>513</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28">
+        <v>513</v>
+      </c>
+      <c r="E28" t="s">
         <v>64</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>编号24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>604</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>66</v>
       </c>
-      <c r="D28">
-        <v>513</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D29">
+        <v>513</v>
+      </c>
+      <c r="F29" t="s">
         <v>67</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>编号25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>604</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D29">
-        <v>513</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D30">
+        <v>513</v>
+      </c>
+      <c r="E30" t="s">
         <v>61</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>69</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>编号26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>604</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="D30">
-        <v>513</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31">
+        <v>513</v>
+      </c>
+      <c r="E31" t="s">
         <v>71</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>72</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>编号27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>604</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="D31">
-        <v>513</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32">
+        <v>513</v>
+      </c>
+      <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>74</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>编号28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>604</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="D32">
-        <v>513</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D33">
+        <v>513</v>
+      </c>
+      <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>77</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>编号29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>604</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="D33">
-        <v>513</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34">
+        <v>513</v>
+      </c>
+      <c r="E34" t="s">
         <v>79</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>80</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>编号30</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>604</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>81</v>
       </c>
-      <c r="D34">
-        <v>513</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D35">
+        <v>513</v>
+      </c>
+      <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>83</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>编号31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>604</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D35">
-        <v>513</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36">
+        <v>513</v>
+      </c>
+      <c r="E36" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>86</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>编号32</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>605</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="D36">
-        <v>513</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D37">
+        <v>513</v>
+      </c>
+      <c r="E37" t="s">
         <v>88</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>89</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>编号33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>605</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="D37">
-        <v>513</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D38">
+        <v>513</v>
+      </c>
+      <c r="E38" t="s">
         <v>91</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>92</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>编号34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>605</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>93</v>
       </c>
-      <c r="D38">
-        <v>513</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D39">
+        <v>513</v>
+      </c>
+      <c r="E39" t="s">
         <v>94</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>95</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>编号35</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>605</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>96</v>
       </c>
-      <c r="D39">
-        <v>513</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D40">
+        <v>513</v>
+      </c>
+      <c r="E40" t="s">
         <v>94</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>97</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>编号36</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>605</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>98</v>
       </c>
-      <c r="D40">
-        <v>513</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D41">
+        <v>513</v>
+      </c>
+      <c r="E41" t="s">
         <v>99</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>100</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v>编号37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>606</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>101</v>
       </c>
-      <c r="D41">
-        <v>513</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D42">
+        <v>513</v>
+      </c>
+      <c r="E42" t="s">
         <v>102</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>103</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>编号38</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>606</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>104</v>
       </c>
-      <c r="D42">
-        <v>513</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D43">
+        <v>513</v>
+      </c>
+      <c r="E43" t="s">
         <v>105</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>106</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>编号39</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>606</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>107</v>
       </c>
-      <c r="D43">
-        <v>513</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D44">
+        <v>513</v>
+      </c>
+      <c r="F44" t="s">
         <v>49</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>编号40</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>606</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>108</v>
       </c>
-      <c r="D44">
-        <v>513</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D45">
+        <v>513</v>
+      </c>
+      <c r="E45" t="s">
         <v>109</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>110</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>编号41</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>607</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>111</v>
       </c>
-      <c r="D45">
-        <v>513</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D46">
+        <v>513</v>
+      </c>
+      <c r="E46" t="s">
         <v>112</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>113</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G46" t="str">
         <f t="shared" si="0"/>
         <v>编号42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>607</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>114</v>
       </c>
-      <c r="D46">
-        <v>513</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D47">
+        <v>513</v>
+      </c>
+      <c r="E47" t="s">
         <v>112</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>115</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G47" t="str">
         <f t="shared" si="0"/>
         <v>编号43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>607</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>116</v>
       </c>
-      <c r="D47">
-        <v>513</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D48">
+        <v>513</v>
+      </c>
+      <c r="E48" t="s">
         <v>117</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>118</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>编号44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>608</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>119</v>
       </c>
-      <c r="D48">
-        <v>513</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D49">
+        <v>513</v>
+      </c>
+      <c r="E49" t="s">
         <v>120</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>121</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>编号45</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>46</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>608</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>122</v>
       </c>
-      <c r="D49">
-        <v>513</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D50">
+        <v>513</v>
+      </c>
+      <c r="E50" t="s">
         <v>30</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>123</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>编号46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
         <v>47</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>608</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>124</v>
       </c>
-      <c r="D50">
-        <v>513</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D51">
+        <v>513</v>
+      </c>
+      <c r="E51" t="s">
         <v>120</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>125</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="0"/>
         <v>编号47</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
         <v>48</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>608</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>126</v>
       </c>
-      <c r="D51">
-        <v>513</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="D52">
+        <v>513</v>
+      </c>
+      <c r="F52" t="s">
         <v>127</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="0"/>
         <v>编号48</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>609</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>128</v>
       </c>
-      <c r="D52">
-        <v>513</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D53">
+        <v>513</v>
+      </c>
+      <c r="E53" t="s">
         <v>129</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>130</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>编号49</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>609</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>131</v>
       </c>
-      <c r="D53">
-        <v>513</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D54">
+        <v>513</v>
+      </c>
+      <c r="E54" t="s">
         <v>57</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>132</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G54" t="str">
         <f t="shared" si="0"/>
         <v>编号50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
         <v>51</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>395</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>133</v>
       </c>
-      <c r="D54">
-        <v>513</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D55">
+        <v>513</v>
+      </c>
+      <c r="E55" t="s">
         <v>134</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>22</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G55" t="str">
         <f t="shared" si="0"/>
         <v>编号51</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
         <v>52</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>395</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>135</v>
       </c>
-      <c r="D55">
-        <v>513</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D56">
+        <v>513</v>
+      </c>
+      <c r="E56" t="s">
         <v>136</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>137</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>编号52</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>53</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>610</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>138</v>
       </c>
-      <c r="D56">
-        <v>513</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D57">
+        <v>513</v>
+      </c>
+      <c r="E57" t="s">
         <v>51</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>139</v>
       </c>
-      <c r="G56" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="0"/>
         <v>编号53</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>54</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>610</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>140</v>
       </c>
-      <c r="D57">
-        <v>513</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D58">
+        <v>513</v>
+      </c>
+      <c r="E58" t="s">
         <v>141</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>142</v>
       </c>
-      <c r="G57" t="str">
+      <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>编号54</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>55</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>610</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>143</v>
       </c>
-      <c r="D58">
-        <v>513</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D59">
+        <v>513</v>
+      </c>
+      <c r="E59" t="s">
         <v>141</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>144</v>
       </c>
-      <c r="G58" t="str">
+      <c r="G59" t="str">
         <f t="shared" si="0"/>
         <v>编号55</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>56</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>610</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>145</v>
       </c>
-      <c r="D59">
-        <v>513</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D60">
+        <v>513</v>
+      </c>
+      <c r="E60" t="s">
         <v>146</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>147</v>
       </c>
-      <c r="G59" t="str">
+      <c r="G60" t="str">
         <f t="shared" si="0"/>
         <v>编号56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
         <v>57</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>610</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>148</v>
       </c>
-      <c r="D60">
-        <v>513</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D61">
+        <v>513</v>
+      </c>
+      <c r="E61" t="s">
         <v>146</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>149</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G61" t="str">
         <f t="shared" si="0"/>
         <v>编号57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
         <v>58</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>611</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>150</v>
       </c>
-      <c r="D61">
-        <v>513</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D62">
+        <v>513</v>
+      </c>
+      <c r="E62" t="s">
         <v>151</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>152</v>
       </c>
-      <c r="G61" t="str">
+      <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>编号58</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>59</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>611</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>153</v>
       </c>
-      <c r="D62">
-        <v>513</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D63">
+        <v>513</v>
+      </c>
+      <c r="E63" t="s">
         <v>146</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>154</v>
       </c>
-      <c r="G62" t="str">
+      <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>编号59</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>60</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>611</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>155</v>
       </c>
-      <c r="D63">
-        <v>513</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D64">
+        <v>513</v>
+      </c>
+      <c r="E64" t="s">
         <v>146</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>156</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>编号60</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>61</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>611</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>157</v>
       </c>
-      <c r="D64">
-        <v>513</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D65">
+        <v>513</v>
+      </c>
+      <c r="E65" t="s">
         <v>141</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>158</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>编号61</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>62</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>611</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>159</v>
       </c>
-      <c r="D65">
-        <v>513</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D66">
+        <v>513</v>
+      </c>
+      <c r="F66" t="s">
         <v>160</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G66" t="str">
         <f t="shared" si="0"/>
         <v>编号62</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>63</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>612</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>161</v>
       </c>
-      <c r="D66">
-        <v>513</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D67">
+        <v>513</v>
+      </c>
+      <c r="E67" t="s">
         <v>102</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>162</v>
       </c>
-      <c r="G66" t="str">
+      <c r="G67" t="str">
         <f t="shared" si="0"/>
         <v>编号63</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
         <v>64</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>612</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>163</v>
       </c>
-      <c r="D67">
-        <v>513</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D68">
+        <v>513</v>
+      </c>
+      <c r="E68" t="s">
         <v>102</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>164</v>
       </c>
-      <c r="G67" t="str">
+      <c r="G68" t="str">
         <f t="shared" si="0"/>
         <v>编号64</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>65</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>612</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>165</v>
       </c>
-      <c r="D68">
-        <v>513</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="D69">
+        <v>513</v>
+      </c>
+      <c r="F69" t="s">
         <v>156</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G69" t="str">
         <f t="shared" si="0"/>
         <v>编号65</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>613</v>
-      </c>
-      <c r="C69" t="s">
-        <v>166</v>
-      </c>
-      <c r="D69">
-        <v>513</v>
-      </c>
-      <c r="E69" t="s">
-        <v>167</v>
-      </c>
-      <c r="F69" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" ref="G69:G129" si="1">"编号" &amp;A69</f>
-        <v>编号66</v>
-      </c>
-    </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
         <v>613</v>
       </c>
       <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70">
+        <v>513</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" ref="G70:G130" si="1">"编号" &amp;A70</f>
+        <v>编号66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>613</v>
+      </c>
+      <c r="C71" t="s">
         <v>169</v>
       </c>
-      <c r="D70">
-        <v>513</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D71">
+        <v>513</v>
+      </c>
+      <c r="E71" t="s">
         <v>170</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>171</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G71" t="str">
         <f t="shared" si="1"/>
         <v>编号67</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72">
         <v>68</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>613</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>172</v>
       </c>
-      <c r="D71">
-        <v>513</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D72">
+        <v>513</v>
+      </c>
+      <c r="E72" t="s">
         <v>173</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>174</v>
       </c>
-      <c r="G71" t="str">
+      <c r="G72" t="str">
         <f t="shared" si="1"/>
         <v>编号68</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>69</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>614</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>175</v>
       </c>
-      <c r="D72">
-        <v>513</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D73">
+        <v>513</v>
+      </c>
+      <c r="E73" t="s">
         <v>141</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>142</v>
       </c>
-      <c r="G72" t="str">
+      <c r="G73" t="str">
         <f t="shared" si="1"/>
         <v>编号69</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>70</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>614</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>176</v>
       </c>
-      <c r="D73">
-        <v>513</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D74">
+        <v>513</v>
+      </c>
+      <c r="E74" t="s">
         <v>146</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>177</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G74" t="str">
         <f t="shared" si="1"/>
         <v>编号70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>71</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>614</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>178</v>
       </c>
-      <c r="D74">
-        <v>513</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D75">
+        <v>513</v>
+      </c>
+      <c r="E75" t="s">
         <v>179</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>180</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G75" t="str">
         <f t="shared" si="1"/>
         <v>编号71</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>72</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>614</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>181</v>
       </c>
-      <c r="D75">
-        <v>513</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D76">
+        <v>513</v>
+      </c>
+      <c r="E76" t="s">
         <v>182</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>183</v>
       </c>
-      <c r="G75" t="str">
+      <c r="G76" t="str">
         <f t="shared" si="1"/>
         <v>编号72</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77">
         <v>73</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>614</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>184</v>
       </c>
-      <c r="D76">
-        <v>513</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D77">
+        <v>513</v>
+      </c>
+      <c r="E77" t="s">
         <v>185</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>186</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G77" t="str">
         <f t="shared" si="1"/>
         <v>编号73</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>74</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>614</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>187</v>
       </c>
-      <c r="D77">
-        <v>513</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D78">
+        <v>513</v>
+      </c>
+      <c r="E78" t="s">
         <v>188</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>189</v>
       </c>
-      <c r="G77" t="str">
+      <c r="G78" t="str">
         <f t="shared" si="1"/>
         <v>编号74</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>75</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>614</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>190</v>
       </c>
-      <c r="D78">
-        <v>513</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D79">
+        <v>513</v>
+      </c>
+      <c r="E79" t="s">
         <v>191</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>192</v>
       </c>
-      <c r="G78" t="str">
+      <c r="G79" t="str">
         <f t="shared" si="1"/>
         <v>编号75</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80">
         <v>76</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>614</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>193</v>
       </c>
-      <c r="D79">
-        <v>513</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D80">
+        <v>513</v>
+      </c>
+      <c r="E80" t="s">
         <v>194</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>195</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G80" t="str">
         <f t="shared" si="1"/>
         <v>编号76</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>77</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>614</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>196</v>
       </c>
-      <c r="D80">
-        <v>513</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D81">
+        <v>513</v>
+      </c>
+      <c r="E81" t="s">
         <v>197</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>198</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G81" t="str">
         <f t="shared" si="1"/>
         <v>编号77</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>78</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>614</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>199</v>
       </c>
-      <c r="D81">
-        <v>513</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D82">
+        <v>513</v>
+      </c>
+      <c r="E82" t="s">
         <v>141</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>200</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G82" t="str">
         <f t="shared" si="1"/>
         <v>编号78</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>79</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>614</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>201</v>
       </c>
-      <c r="D82">
-        <v>513</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D83">
+        <v>513</v>
+      </c>
+      <c r="E83" t="s">
         <v>202</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>203</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G83" t="str">
         <f t="shared" si="1"/>
         <v>编号79</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>80</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>615</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>204</v>
       </c>
-      <c r="D83">
-        <v>513</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D84">
+        <v>513</v>
+      </c>
+      <c r="E84" t="s">
         <v>205</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>206</v>
       </c>
-      <c r="G83" t="str">
+      <c r="G84" t="str">
         <f t="shared" si="1"/>
         <v>编号80</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>81</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>615</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>207</v>
       </c>
-      <c r="D84">
-        <v>513</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D85">
+        <v>513</v>
+      </c>
+      <c r="E85" t="s">
         <v>208</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>209</v>
       </c>
-      <c r="G84" t="str">
+      <c r="G85" t="str">
         <f t="shared" si="1"/>
         <v>编号81</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>82</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>615</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>210</v>
       </c>
-      <c r="D85">
-        <v>513</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D86">
+        <v>513</v>
+      </c>
+      <c r="E86" t="s">
         <v>51</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>211</v>
       </c>
-      <c r="G85" t="str">
+      <c r="G86" t="str">
         <f t="shared" si="1"/>
         <v>编号82</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>83</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>615</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>212</v>
       </c>
-      <c r="D86">
-        <v>513</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D87">
+        <v>513</v>
+      </c>
+      <c r="E87" t="s">
         <v>54</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>213</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G87" t="str">
         <f t="shared" si="1"/>
         <v>编号83</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>84</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>616</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>214</v>
       </c>
-      <c r="D87">
-        <v>513</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D88">
+        <v>513</v>
+      </c>
+      <c r="E88" t="s">
         <v>215</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>216</v>
       </c>
-      <c r="G87" t="str">
+      <c r="G88" t="str">
         <f t="shared" si="1"/>
         <v>编号84</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>85</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>616</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>217</v>
       </c>
-      <c r="D88">
-        <v>513</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D89">
+        <v>513</v>
+      </c>
+      <c r="E89" t="s">
         <v>218</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>219</v>
       </c>
-      <c r="G88" t="str">
+      <c r="G89" t="str">
         <f t="shared" si="1"/>
         <v>编号85</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>86</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>616</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>220</v>
       </c>
-      <c r="D89">
-        <v>513</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D90">
+        <v>513</v>
+      </c>
+      <c r="E90" t="s">
         <v>221</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>222</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G90" t="str">
         <f t="shared" si="1"/>
         <v>编号86</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91">
         <v>87</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>616</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>223</v>
       </c>
-      <c r="D90">
-        <v>513</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D91">
+        <v>513</v>
+      </c>
+      <c r="E91" t="s">
         <v>224</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>225</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G91" t="str">
         <f t="shared" si="1"/>
         <v>编号87</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92">
         <v>88</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>617</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>226</v>
       </c>
-      <c r="D91">
-        <v>513</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D92">
+        <v>513</v>
+      </c>
+      <c r="E92" t="s">
         <v>227</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>228</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G92" t="str">
         <f t="shared" si="1"/>
         <v>编号88</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>89</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>617</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>229</v>
       </c>
-      <c r="D92">
-        <v>513</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D93">
+        <v>513</v>
+      </c>
+      <c r="E93" t="s">
         <v>230</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>231</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G93" t="str">
         <f t="shared" si="1"/>
         <v>编号89</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>90</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>617</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>232</v>
       </c>
-      <c r="D93">
-        <v>513</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D94">
+        <v>513</v>
+      </c>
+      <c r="E94" t="s">
         <v>233</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>177</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G94" t="str">
         <f t="shared" si="1"/>
         <v>编号90</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>91</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>617</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>234</v>
       </c>
-      <c r="D94">
-        <v>513</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D95">
+        <v>513</v>
+      </c>
+      <c r="F95" t="s">
         <v>235</v>
       </c>
-      <c r="G94" t="str">
+      <c r="G95" t="str">
         <f t="shared" si="1"/>
         <v>编号91</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>92</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>617</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>236</v>
       </c>
-      <c r="D95">
-        <v>513</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D96">
+        <v>513</v>
+      </c>
+      <c r="E96" t="s">
         <v>237</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>238</v>
       </c>
-      <c r="G95" t="str">
+      <c r="G96" t="str">
         <f t="shared" si="1"/>
         <v>编号92</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97">
         <v>93</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>617</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>239</v>
       </c>
-      <c r="D96">
-        <v>513</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D97">
+        <v>513</v>
+      </c>
+      <c r="E97" t="s">
         <v>240</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>241</v>
       </c>
-      <c r="G96" t="str">
+      <c r="G97" t="str">
         <f t="shared" si="1"/>
         <v>编号93</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98">
         <v>94</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>617</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>242</v>
       </c>
-      <c r="D97">
-        <v>513</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D98">
+        <v>513</v>
+      </c>
+      <c r="E98" t="s">
         <v>243</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F98" t="s">
         <v>244</v>
       </c>
-      <c r="G97" t="str">
+      <c r="G98" t="str">
         <f t="shared" si="1"/>
         <v>编号94</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99">
         <v>95</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>617</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>245</v>
       </c>
-      <c r="D98">
-        <v>513</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D99">
+        <v>513</v>
+      </c>
+      <c r="E99" t="s">
         <v>246</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>247</v>
       </c>
-      <c r="G98" t="str">
+      <c r="G99" t="str">
         <f t="shared" si="1"/>
         <v>编号95</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100">
         <v>96</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>617</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>248</v>
       </c>
-      <c r="D99">
-        <v>513</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D100">
+        <v>513</v>
+      </c>
+      <c r="E100" t="s">
         <v>249</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>250</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G100" t="str">
         <f t="shared" si="1"/>
         <v>编号96</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101">
         <v>97</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>617</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>251</v>
       </c>
-      <c r="D100">
-        <v>513</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D101">
+        <v>513</v>
+      </c>
+      <c r="E101" t="s">
         <v>240</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>252</v>
       </c>
-      <c r="G100" t="str">
+      <c r="G101" t="str">
         <f t="shared" si="1"/>
         <v>编号97</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102">
         <v>98</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>617</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>253</v>
       </c>
-      <c r="D101">
-        <v>513</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D102">
+        <v>513</v>
+      </c>
+      <c r="E102" t="s">
         <v>240</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>254</v>
       </c>
-      <c r="G101" t="str">
+      <c r="G102" t="str">
         <f t="shared" si="1"/>
         <v>编号98</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103">
         <v>99</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>618</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>255</v>
       </c>
-      <c r="D102">
-        <v>513</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D103">
+        <v>513</v>
+      </c>
+      <c r="E103" t="s">
         <v>57</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>256</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G103" t="str">
         <f t="shared" si="1"/>
         <v>编号99</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104">
         <v>100</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>618</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>257</v>
       </c>
-      <c r="D103">
-        <v>513</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D104">
+        <v>513</v>
+      </c>
+      <c r="E104" t="s">
         <v>61</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>258</v>
       </c>
-      <c r="G103" t="str">
+      <c r="G104" t="str">
         <f t="shared" si="1"/>
         <v>编号100</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105">
         <v>101</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>618</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>259</v>
       </c>
-      <c r="D104">
-        <v>513</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D105">
+        <v>513</v>
+      </c>
+      <c r="E105" t="s">
         <v>260</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>261</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G105" t="str">
         <f t="shared" si="1"/>
         <v>编号101</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106">
         <v>102</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>618</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>262</v>
       </c>
-      <c r="D105">
-        <v>513</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="D106">
+        <v>513</v>
+      </c>
+      <c r="E106" t="s">
         <v>263</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F106" t="s">
         <v>264</v>
       </c>
-      <c r="G105" t="str">
+      <c r="G106" t="str">
         <f t="shared" si="1"/>
         <v>编号102</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107">
         <v>103</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>619</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>265</v>
       </c>
-      <c r="D106">
-        <v>513</v>
-      </c>
-      <c r="G106" t="str">
+      <c r="D107">
+        <v>513</v>
+      </c>
+      <c r="G107" t="str">
         <f t="shared" si="1"/>
         <v>编号103</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>104</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>619</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>266</v>
       </c>
-      <c r="D107">
-        <v>513</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D108">
+        <v>513</v>
+      </c>
+      <c r="F108" t="s">
         <v>267</v>
       </c>
-      <c r="G107" t="str">
+      <c r="G108" t="str">
         <f t="shared" si="1"/>
         <v>编号104</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109">
         <v>105</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>619</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>268</v>
       </c>
-      <c r="D108">
-        <v>513</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="D109">
+        <v>513</v>
+      </c>
+      <c r="F109" t="s">
         <v>269</v>
       </c>
-      <c r="G108" t="str">
+      <c r="G109" t="str">
         <f t="shared" si="1"/>
         <v>编号105</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110">
         <v>106</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>619</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>270</v>
       </c>
-      <c r="D109">
-        <v>513</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="D110">
+        <v>513</v>
+      </c>
+      <c r="F110" t="s">
         <v>271</v>
       </c>
-      <c r="G109" t="str">
+      <c r="G110" t="str">
         <f t="shared" si="1"/>
         <v>编号106</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111">
         <v>107</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>619</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>272</v>
       </c>
-      <c r="D110">
-        <v>513</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="D111">
+        <v>513</v>
+      </c>
+      <c r="F111" t="s">
         <v>273</v>
       </c>
-      <c r="G110" t="str">
+      <c r="G111" t="str">
         <f t="shared" si="1"/>
         <v>编号107</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112">
         <v>108</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>619</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>274</v>
       </c>
-      <c r="D111">
-        <v>513</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="D112">
+        <v>513</v>
+      </c>
+      <c r="F112" t="s">
         <v>275</v>
       </c>
-      <c r="G111" t="str">
+      <c r="G112" t="str">
         <f t="shared" si="1"/>
         <v>编号108</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113">
         <v>109</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>619</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>276</v>
       </c>
-      <c r="D112">
-        <v>513</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="D113">
+        <v>513</v>
+      </c>
+      <c r="F113" t="s">
         <v>277</v>
       </c>
-      <c r="G112" t="str">
+      <c r="G113" t="str">
         <f t="shared" si="1"/>
         <v>编号109</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114">
         <v>110</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>619</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>278</v>
       </c>
-      <c r="D113">
-        <v>513</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="D114">
+        <v>513</v>
+      </c>
+      <c r="F114" t="s">
         <v>279</v>
       </c>
-      <c r="G113" t="str">
+      <c r="G114" t="str">
         <f t="shared" si="1"/>
         <v>编号110</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115">
         <v>111</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>619</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>280</v>
       </c>
-      <c r="D114">
-        <v>513</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="D115">
+        <v>513</v>
+      </c>
+      <c r="F115" t="s">
         <v>281</v>
       </c>
-      <c r="G114" t="str">
+      <c r="G115" t="str">
         <f t="shared" si="1"/>
         <v>编号111</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116">
         <v>112</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>619</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>282</v>
       </c>
-      <c r="D115">
-        <v>513</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="D116">
+        <v>513</v>
+      </c>
+      <c r="F116" t="s">
         <v>283</v>
       </c>
-      <c r="G115" t="str">
+      <c r="G116" t="str">
         <f t="shared" si="1"/>
         <v>编号112</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117">
         <v>113</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>620</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>284</v>
       </c>
-      <c r="D116">
-        <v>513</v>
-      </c>
-      <c r="G116" t="str">
+      <c r="D117">
+        <v>513</v>
+      </c>
+      <c r="G117" t="str">
         <f t="shared" si="1"/>
         <v>编号113</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118">
         <v>114</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>620</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>285</v>
       </c>
-      <c r="D117">
-        <v>513</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="D118">
+        <v>513</v>
+      </c>
+      <c r="F118" t="s">
         <v>286</v>
       </c>
-      <c r="G117" t="str">
+      <c r="G118" t="str">
         <f t="shared" si="1"/>
         <v>编号114</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119">
         <v>115</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>620</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>287</v>
       </c>
-      <c r="D118">
-        <v>513</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="D119">
+        <v>513</v>
+      </c>
+      <c r="F119" t="s">
         <v>286</v>
       </c>
-      <c r="G118" t="str">
+      <c r="G119" t="str">
         <f t="shared" si="1"/>
         <v>编号115</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120">
         <v>116</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>620</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>288</v>
       </c>
-      <c r="D119">
-        <v>513</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="D120">
+        <v>513</v>
+      </c>
+      <c r="F120" t="s">
         <v>289</v>
       </c>
-      <c r="G119" t="str">
+      <c r="G120" t="str">
         <f t="shared" si="1"/>
         <v>编号116</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121">
         <v>117</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>620</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>290</v>
       </c>
-      <c r="D120">
-        <v>513</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="D121">
+        <v>513</v>
+      </c>
+      <c r="F121" t="s">
         <v>291</v>
       </c>
-      <c r="G120" t="str">
+      <c r="G121" t="str">
         <f t="shared" si="1"/>
         <v>编号117</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122">
         <v>118</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>620</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>292</v>
       </c>
-      <c r="D121">
-        <v>513</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="D122">
+        <v>513</v>
+      </c>
+      <c r="F122" t="s">
         <v>293</v>
       </c>
-      <c r="G121" t="str">
+      <c r="G122" t="str">
         <f t="shared" si="1"/>
         <v>编号118</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123">
         <v>119</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>620</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>294</v>
       </c>
-      <c r="D122">
-        <v>513</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="D123">
+        <v>513</v>
+      </c>
+      <c r="F123" t="s">
         <v>295</v>
       </c>
-      <c r="G122" t="str">
+      <c r="G123" t="str">
         <f t="shared" si="1"/>
         <v>编号119</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124">
         <v>120</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>620</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>296</v>
       </c>
-      <c r="D123">
-        <v>513</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="D124">
+        <v>513</v>
+      </c>
+      <c r="E124" t="s">
         <v>197</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>297</v>
       </c>
-      <c r="G123" t="str">
+      <c r="G124" t="str">
         <f t="shared" si="1"/>
         <v>编号120</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125">
         <v>121</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>621</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>298</v>
       </c>
-      <c r="D124">
-        <v>513</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D125">
+        <v>513</v>
+      </c>
+      <c r="E125" t="s">
         <v>299</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F125" t="s">
         <v>300</v>
       </c>
-      <c r="G124" t="str">
+      <c r="G125" t="str">
         <f t="shared" si="1"/>
         <v>编号121</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126">
         <v>122</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>621</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>301</v>
       </c>
-      <c r="D125">
-        <v>513</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D126">
+        <v>513</v>
+      </c>
+      <c r="E126" t="s">
         <v>302</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F126" t="s">
         <v>303</v>
       </c>
-      <c r="G125" t="str">
+      <c r="G126" t="str">
         <f t="shared" si="1"/>
         <v>编号122</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127">
         <v>123</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>621</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>304</v>
       </c>
-      <c r="D126">
-        <v>513</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D127">
+        <v>513</v>
+      </c>
+      <c r="F127" t="s">
         <v>305</v>
       </c>
-      <c r="G126" t="str">
+      <c r="G127" t="str">
         <f t="shared" si="1"/>
         <v>编号123</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128">
         <v>124</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>621</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>306</v>
       </c>
-      <c r="D127">
-        <v>513</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="D128">
+        <v>513</v>
+      </c>
+      <c r="F128" t="s">
         <v>307</v>
       </c>
-      <c r="G127" t="str">
+      <c r="G128" t="str">
         <f t="shared" si="1"/>
         <v>编号124</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129">
         <v>125</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>621</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>308</v>
       </c>
-      <c r="D128">
-        <v>513</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="D129">
+        <v>513</v>
+      </c>
+      <c r="F129" t="s">
         <v>309</v>
       </c>
-      <c r="G128" t="str">
+      <c r="G129" t="str">
         <f t="shared" si="1"/>
         <v>编号125</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130">
         <v>126</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>621</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>310</v>
       </c>
-      <c r="D129">
-        <v>513</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="D130">
+        <v>513</v>
+      </c>
+      <c r="F130" t="s">
         <v>311</v>
       </c>
-      <c r="G129" t="str">
+      <c r="G130" t="str">
         <f t="shared" si="1"/>
         <v>编号126</v>
       </c>

--- a/CnMedicine/规范数据表.xlsx
+++ b/CnMedicine/规范数据表.xlsx
@@ -113,7 +113,7 @@
     <author>zhangchong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="654">
   <si>
     <t>编号</t>
   </si>
@@ -2285,10 +2285,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>性别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2378,7 +2374,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>手机号</t>
+    <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6894,2994 +6898,3005 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="116.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="C1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>598</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>-3</v>
-      </c>
-      <c r="B2" t="s">
+        <v>-2</v>
+      </c>
+      <c r="C2" t="s">
         <v>623</v>
       </c>
-      <c r="D2">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>652</v>
-      </c>
-      <c r="D3">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>-1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>624</v>
-      </c>
-      <c r="D4">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="str">
+        <f>"编号" &amp;A4</f>
+        <v>编号1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>596</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>512</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="str">
-        <f>"编号" &amp;A5</f>
-        <v>编号1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H68" si="0">"编号" &amp;A5</f>
+        <v>编号2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>596</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
+        <v>599</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>512</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G69" si="0">"编号" &amp;A6</f>
-        <v>编号2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>599</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>512</v>
-      </c>
-      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>编号3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C7" t="s">
         <v>599</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E7">
         <v>512</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>编号4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C8" t="s">
         <v>600</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>513</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E8">
+        <v>513</v>
+      </c>
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>编号5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C9" t="s">
         <v>600</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>513</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E9">
+        <v>513</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>编号6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C10" t="s">
         <v>600</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>513</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E10">
+        <v>513</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>编号7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C11" t="s">
         <v>600</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D12">
-        <v>513</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E11">
+        <v>513</v>
+      </c>
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>编号8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C12" t="s">
         <v>600</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D13">
-        <v>513</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E12">
+        <v>513</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>编号9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C13" t="s">
         <v>600</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D14">
-        <v>513</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E13">
+        <v>513</v>
+      </c>
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>编号10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C14" t="s">
         <v>601</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
-        <v>513</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E14">
+        <v>513</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>编号11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C15" t="s">
         <v>601</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D16">
-        <v>513</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E15">
+        <v>513</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>编号12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C16" t="s">
         <v>601</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="D17">
-        <v>513</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E16">
+        <v>513</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G16" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>编号13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C17" t="s">
         <v>601</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="D18">
-        <v>513</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>编号14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C18" t="s">
         <v>602</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="D19">
-        <v>513</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E18">
+        <v>513</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G18" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>编号15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C19" t="s">
         <v>602</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="D20">
-        <v>513</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E19">
+        <v>513</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>编号16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C20" t="s">
         <v>603</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="D21">
-        <v>513</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E20">
+        <v>513</v>
+      </c>
+      <c r="F20" t="s">
         <v>46</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G20" t="s">
         <v>47</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>编号17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C21" t="s">
         <v>603</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="D22">
-        <v>513</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E21">
+        <v>513</v>
+      </c>
+      <c r="G21" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>编号18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C22" t="s">
         <v>603</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="D23">
-        <v>513</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="E22">
+        <v>513</v>
+      </c>
+      <c r="F22" t="s">
         <v>51</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G22" t="s">
         <v>52</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>编号19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C23" t="s">
         <v>604</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="D24">
-        <v>513</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E23">
+        <v>513</v>
+      </c>
+      <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G23" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>编号20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C24" t="s">
         <v>604</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="D25">
-        <v>513</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E24">
+        <v>513</v>
+      </c>
+      <c r="F24" t="s">
         <v>57</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G24" t="s">
         <v>58</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>编号21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C25" t="s">
         <v>604</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="D26">
-        <v>513</v>
-      </c>
-      <c r="G26" t="str">
+      <c r="E25">
+        <v>513</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>编号22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C26" t="s">
         <v>604</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="D27">
-        <v>513</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E26">
+        <v>513</v>
+      </c>
+      <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G26" t="s">
         <v>62</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>编号23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C27" t="s">
         <v>604</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="D28">
-        <v>513</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E27">
+        <v>513</v>
+      </c>
+      <c r="F27" t="s">
         <v>64</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G27" t="s">
         <v>65</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>编号24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C28" t="s">
         <v>604</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="D29">
-        <v>513</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E28">
+        <v>513</v>
+      </c>
+      <c r="G28" t="s">
         <v>67</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>编号25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B29">
+        <v>-2</v>
+      </c>
+      <c r="C29" t="s">
         <v>604</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D29" t="s">
         <v>68</v>
       </c>
-      <c r="D30">
-        <v>513</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E29">
+        <v>513</v>
+      </c>
+      <c r="F29" t="s">
         <v>61</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G29" t="s">
         <v>69</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>编号26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C30" t="s">
         <v>604</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D30" t="s">
         <v>70</v>
       </c>
-      <c r="D31">
-        <v>513</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E30">
+        <v>513</v>
+      </c>
+      <c r="F30" t="s">
         <v>71</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G30" t="s">
         <v>72</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>编号27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C31" t="s">
         <v>604</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D31" t="s">
         <v>73</v>
       </c>
-      <c r="D32">
-        <v>513</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E31">
+        <v>513</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>编号28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C32" t="s">
         <v>604</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D33">
-        <v>513</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E32">
+        <v>513</v>
+      </c>
+      <c r="F32" t="s">
         <v>76</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G32" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>编号29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C33" t="s">
         <v>604</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D34">
-        <v>513</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="E33">
+        <v>513</v>
+      </c>
+      <c r="F33" t="s">
         <v>79</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G33" t="s">
         <v>80</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>编号30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C34" t="s">
         <v>604</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D34" t="s">
         <v>81</v>
       </c>
-      <c r="D35">
-        <v>513</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="E34">
+        <v>513</v>
+      </c>
+      <c r="F34" t="s">
         <v>82</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G34" t="s">
         <v>83</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>编号31</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C35" t="s">
         <v>604</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D35" t="s">
         <v>84</v>
       </c>
-      <c r="D36">
-        <v>513</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="E35">
+        <v>513</v>
+      </c>
+      <c r="F35" t="s">
         <v>85</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G35" t="s">
         <v>86</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>编号32</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C36" t="s">
         <v>605</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="D37">
-        <v>513</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="E36">
+        <v>513</v>
+      </c>
+      <c r="F36" t="s">
         <v>88</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G36" t="s">
         <v>89</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>编号33</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C37" t="s">
         <v>605</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D37" t="s">
         <v>90</v>
       </c>
-      <c r="D38">
-        <v>513</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="E37">
+        <v>513</v>
+      </c>
+      <c r="F37" t="s">
         <v>91</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G37" t="s">
         <v>92</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>编号34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C38" t="s">
         <v>605</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D38" t="s">
         <v>93</v>
       </c>
-      <c r="D39">
-        <v>513</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E38">
+        <v>513</v>
+      </c>
+      <c r="F38" t="s">
         <v>94</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G38" t="s">
         <v>95</v>
       </c>
-      <c r="G39" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>编号35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C39" t="s">
         <v>605</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D39" t="s">
         <v>96</v>
       </c>
-      <c r="D40">
-        <v>513</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="E39">
+        <v>513</v>
+      </c>
+      <c r="F39" t="s">
         <v>94</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G39" t="s">
         <v>97</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>编号36</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C40" t="s">
         <v>605</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D40" t="s">
         <v>98</v>
       </c>
-      <c r="D41">
-        <v>513</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E40">
+        <v>513</v>
+      </c>
+      <c r="F40" t="s">
         <v>99</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G40" t="s">
         <v>100</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>编号37</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C41" t="s">
         <v>606</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D41" t="s">
         <v>101</v>
       </c>
-      <c r="D42">
-        <v>513</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="E41">
+        <v>513</v>
+      </c>
+      <c r="F41" t="s">
         <v>102</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G41" t="s">
         <v>103</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>编号38</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C42" t="s">
         <v>606</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D42" t="s">
         <v>104</v>
       </c>
-      <c r="D43">
-        <v>513</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E42">
+        <v>513</v>
+      </c>
+      <c r="F42" t="s">
         <v>105</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G42" t="s">
         <v>106</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>编号39</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C43" t="s">
         <v>606</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D43" t="s">
         <v>107</v>
       </c>
-      <c r="D44">
-        <v>513</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E43">
+        <v>513</v>
+      </c>
+      <c r="G43" t="s">
         <v>49</v>
       </c>
-      <c r="G44" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>编号40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C44" t="s">
         <v>606</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D44" t="s">
         <v>108</v>
       </c>
-      <c r="D45">
-        <v>513</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="E44">
+        <v>513</v>
+      </c>
+      <c r="F44" t="s">
         <v>109</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G44" t="s">
         <v>110</v>
       </c>
-      <c r="G45" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>编号41</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C45" t="s">
         <v>607</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D45" t="s">
         <v>111</v>
       </c>
-      <c r="D46">
-        <v>513</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="E45">
+        <v>513</v>
+      </c>
+      <c r="F45" t="s">
         <v>112</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G45" t="s">
         <v>113</v>
       </c>
-      <c r="G46" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>编号42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C46" t="s">
         <v>607</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D46" t="s">
         <v>114</v>
       </c>
-      <c r="D47">
-        <v>513</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="E46">
+        <v>513</v>
+      </c>
+      <c r="F46" t="s">
         <v>112</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G46" t="s">
         <v>115</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>编号43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C47" t="s">
         <v>607</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D47" t="s">
         <v>116</v>
       </c>
-      <c r="D48">
-        <v>513</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="E47">
+        <v>513</v>
+      </c>
+      <c r="F47" t="s">
         <v>117</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G47" t="s">
         <v>118</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>编号44</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C48" t="s">
         <v>608</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D48" t="s">
         <v>119</v>
       </c>
-      <c r="D49">
-        <v>513</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="E48">
+        <v>513</v>
+      </c>
+      <c r="F48" t="s">
         <v>120</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G48" t="s">
         <v>121</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>编号45</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C49" t="s">
         <v>608</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D49" t="s">
         <v>122</v>
       </c>
-      <c r="D50">
-        <v>513</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="E49">
+        <v>513</v>
+      </c>
+      <c r="F49" t="s">
         <v>30</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G49" t="s">
         <v>123</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>编号46</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C50" t="s">
         <v>608</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D50" t="s">
         <v>124</v>
       </c>
-      <c r="D51">
-        <v>513</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="E50">
+        <v>513</v>
+      </c>
+      <c r="F50" t="s">
         <v>120</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G50" t="s">
         <v>125</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>编号47</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C51" t="s">
         <v>608</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D51" t="s">
         <v>126</v>
       </c>
-      <c r="D52">
-        <v>513</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E51">
+        <v>513</v>
+      </c>
+      <c r="G51" t="s">
         <v>127</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>编号48</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C52" t="s">
         <v>609</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D52" t="s">
         <v>128</v>
       </c>
-      <c r="D53">
-        <v>513</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="E52">
+        <v>513</v>
+      </c>
+      <c r="F52" t="s">
         <v>129</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G52" t="s">
         <v>130</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>编号49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C53" t="s">
         <v>609</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D53" t="s">
         <v>131</v>
       </c>
-      <c r="D54">
-        <v>513</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="E53">
+        <v>513</v>
+      </c>
+      <c r="F53" t="s">
         <v>57</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G53" t="s">
         <v>132</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>编号50</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54">
         <v>51</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C54" t="s">
         <v>395</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D54" t="s">
         <v>133</v>
       </c>
-      <c r="D55">
-        <v>513</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="E54">
+        <v>513</v>
+      </c>
+      <c r="F54" t="s">
         <v>134</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G54" t="s">
         <v>22</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v>编号51</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55">
         <v>52</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C55" t="s">
         <v>395</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D55" t="s">
         <v>135</v>
       </c>
-      <c r="D56">
-        <v>513</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="E55">
+        <v>513</v>
+      </c>
+      <c r="F55" t="s">
         <v>136</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G55" t="s">
         <v>137</v>
       </c>
-      <c r="G56" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v>编号52</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56">
         <v>53</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C56" t="s">
         <v>610</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D56" t="s">
         <v>138</v>
       </c>
-      <c r="D57">
-        <v>513</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="E56">
+        <v>513</v>
+      </c>
+      <c r="F56" t="s">
         <v>51</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G56" t="s">
         <v>139</v>
       </c>
-      <c r="G57" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v>编号53</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>54</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C57" t="s">
         <v>610</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D57" t="s">
         <v>140</v>
       </c>
-      <c r="D58">
-        <v>513</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="E57">
+        <v>513</v>
+      </c>
+      <c r="F57" t="s">
         <v>141</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G57" t="s">
         <v>142</v>
       </c>
-      <c r="G58" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="0"/>
         <v>编号54</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>55</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C58" t="s">
         <v>610</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D58" t="s">
         <v>143</v>
       </c>
-      <c r="D59">
-        <v>513</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="E58">
+        <v>513</v>
+      </c>
+      <c r="F58" t="s">
         <v>141</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G58" t="s">
         <v>144</v>
       </c>
-      <c r="G59" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="0"/>
         <v>编号55</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>56</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C59" t="s">
         <v>610</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D59" t="s">
         <v>145</v>
       </c>
-      <c r="D60">
-        <v>513</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="E59">
+        <v>513</v>
+      </c>
+      <c r="F59" t="s">
         <v>146</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G59" t="s">
         <v>147</v>
       </c>
-      <c r="G60" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="0"/>
         <v>编号56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>57</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C60" t="s">
         <v>610</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D60" t="s">
         <v>148</v>
       </c>
-      <c r="D61">
-        <v>513</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="E60">
+        <v>513</v>
+      </c>
+      <c r="F60" t="s">
         <v>146</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G60" t="s">
         <v>149</v>
       </c>
-      <c r="G61" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v>编号57</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61">
         <v>58</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C61" t="s">
         <v>611</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D61" t="s">
         <v>150</v>
       </c>
-      <c r="D62">
-        <v>513</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="E61">
+        <v>513</v>
+      </c>
+      <c r="F61" t="s">
         <v>151</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G61" t="s">
         <v>152</v>
       </c>
-      <c r="G62" t="str">
+      <c r="H61" t="str">
         <f t="shared" si="0"/>
         <v>编号58</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62">
         <v>59</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C62" t="s">
         <v>611</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D62" t="s">
         <v>153</v>
       </c>
-      <c r="D63">
-        <v>513</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="E62">
+        <v>513</v>
+      </c>
+      <c r="F62" t="s">
         <v>146</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G62" t="s">
         <v>154</v>
       </c>
-      <c r="G63" t="str">
+      <c r="H62" t="str">
         <f t="shared" si="0"/>
         <v>编号59</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>60</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C63" t="s">
         <v>611</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D63" t="s">
         <v>155</v>
       </c>
-      <c r="D64">
-        <v>513</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="E63">
+        <v>513</v>
+      </c>
+      <c r="F63" t="s">
         <v>146</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G63" t="s">
         <v>156</v>
       </c>
-      <c r="G64" t="str">
+      <c r="H63" t="str">
         <f t="shared" si="0"/>
         <v>编号60</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>61</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C64" t="s">
         <v>611</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D64" t="s">
         <v>157</v>
       </c>
-      <c r="D65">
-        <v>513</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="E64">
+        <v>513</v>
+      </c>
+      <c r="F64" t="s">
         <v>141</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G64" t="s">
         <v>158</v>
       </c>
-      <c r="G65" t="str">
+      <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v>编号61</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>62</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C65" t="s">
         <v>611</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D65" t="s">
         <v>159</v>
       </c>
-      <c r="D66">
-        <v>513</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E65">
+        <v>513</v>
+      </c>
+      <c r="G65" t="s">
         <v>160</v>
       </c>
-      <c r="G66" t="str">
+      <c r="H65" t="str">
         <f t="shared" si="0"/>
         <v>编号62</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>63</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C66" t="s">
         <v>612</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D66" t="s">
         <v>161</v>
       </c>
-      <c r="D67">
-        <v>513</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="E66">
+        <v>513</v>
+      </c>
+      <c r="F66" t="s">
         <v>102</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G66" t="s">
         <v>162</v>
       </c>
-      <c r="G67" t="str">
+      <c r="H66" t="str">
         <f t="shared" si="0"/>
         <v>编号63</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>64</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C67" t="s">
         <v>612</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D67" t="s">
         <v>163</v>
       </c>
-      <c r="D68">
-        <v>513</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="E67">
+        <v>513</v>
+      </c>
+      <c r="F67" t="s">
         <v>102</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G67" t="s">
         <v>164</v>
       </c>
-      <c r="G68" t="str">
+      <c r="H67" t="str">
         <f t="shared" si="0"/>
         <v>编号64</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68">
         <v>65</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C68" t="s">
         <v>612</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D68" t="s">
         <v>165</v>
       </c>
-      <c r="D69">
-        <v>513</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E68">
+        <v>513</v>
+      </c>
+      <c r="G68" t="s">
         <v>156</v>
       </c>
-      <c r="G69" t="str">
+      <c r="H68" t="str">
         <f t="shared" si="0"/>
         <v>编号65</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>613</v>
+      </c>
+      <c r="D69" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69">
+        <v>513</v>
+      </c>
+      <c r="F69" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ref="H69:H129" si="1">"编号" &amp;A69</f>
+        <v>编号66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>66</v>
-      </c>
-      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
         <v>613</v>
       </c>
-      <c r="C70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70">
-        <v>513</v>
-      </c>
-      <c r="E70" t="s">
-        <v>167</v>
+      <c r="D70" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70">
+        <v>513</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" ref="G70:G130" si="1">"编号" &amp;A70</f>
-        <v>编号66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>67</v>
-      </c>
-      <c r="B71" t="s">
-        <v>613</v>
-      </c>
-      <c r="C71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71">
-        <v>513</v>
-      </c>
-      <c r="E71" t="s">
         <v>170</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G70" t="s">
         <v>171</v>
       </c>
-      <c r="G71" t="str">
+      <c r="H70" t="str">
         <f t="shared" si="1"/>
         <v>编号67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71">
         <v>68</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C71" t="s">
         <v>613</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D71" t="s">
         <v>172</v>
       </c>
-      <c r="D72">
-        <v>513</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="E71">
+        <v>513</v>
+      </c>
+      <c r="F71" t="s">
         <v>173</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G71" t="s">
         <v>174</v>
       </c>
-      <c r="G72" t="str">
+      <c r="H71" t="str">
         <f t="shared" si="1"/>
         <v>编号68</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72">
         <v>69</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C72" t="s">
         <v>614</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D72" t="s">
         <v>175</v>
       </c>
-      <c r="D73">
-        <v>513</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="E72">
+        <v>513</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G72" t="s">
         <v>142</v>
       </c>
-      <c r="G73" t="str">
+      <c r="H72" t="str">
         <f t="shared" si="1"/>
         <v>编号69</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>70</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C73" t="s">
         <v>614</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D73" t="s">
         <v>176</v>
       </c>
-      <c r="D74">
-        <v>513</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="E73">
+        <v>513</v>
+      </c>
+      <c r="F73" t="s">
         <v>146</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G73" t="s">
         <v>177</v>
       </c>
-      <c r="G74" t="str">
+      <c r="H73" t="str">
         <f t="shared" si="1"/>
         <v>编号70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>71</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C74" t="s">
         <v>614</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D74" t="s">
         <v>178</v>
       </c>
-      <c r="D75">
-        <v>513</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="E74">
+        <v>513</v>
+      </c>
+      <c r="F74" t="s">
         <v>179</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G74" t="s">
         <v>180</v>
       </c>
-      <c r="G75" t="str">
+      <c r="H74" t="str">
         <f t="shared" si="1"/>
         <v>编号71</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>72</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C75" t="s">
         <v>614</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D75" t="s">
         <v>181</v>
       </c>
-      <c r="D76">
-        <v>513</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E75">
+        <v>513</v>
+      </c>
+      <c r="F75" t="s">
         <v>182</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G75" t="s">
         <v>183</v>
       </c>
-      <c r="G76" t="str">
+      <c r="H75" t="str">
         <f t="shared" si="1"/>
         <v>编号72</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>73</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C76" t="s">
         <v>614</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D76" t="s">
         <v>184</v>
       </c>
-      <c r="D77">
-        <v>513</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="E76">
+        <v>513</v>
+      </c>
+      <c r="F76" t="s">
         <v>185</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G76" t="s">
         <v>186</v>
       </c>
-      <c r="G77" t="str">
+      <c r="H76" t="str">
         <f t="shared" si="1"/>
         <v>编号73</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77">
         <v>74</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C77" t="s">
         <v>614</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D77" t="s">
         <v>187</v>
       </c>
-      <c r="D78">
-        <v>513</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="E77">
+        <v>513</v>
+      </c>
+      <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G77" t="s">
         <v>189</v>
       </c>
-      <c r="G78" t="str">
+      <c r="H77" t="str">
         <f t="shared" si="1"/>
         <v>编号74</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>75</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C78" t="s">
         <v>614</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D78" t="s">
         <v>190</v>
       </c>
-      <c r="D79">
-        <v>513</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E78">
+        <v>513</v>
+      </c>
+      <c r="F78" t="s">
         <v>191</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G78" t="s">
         <v>192</v>
       </c>
-      <c r="G79" t="str">
+      <c r="H78" t="str">
         <f t="shared" si="1"/>
         <v>编号75</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>76</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C79" t="s">
         <v>614</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D79" t="s">
         <v>193</v>
       </c>
-      <c r="D80">
-        <v>513</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="E79">
+        <v>513</v>
+      </c>
+      <c r="F79" t="s">
         <v>194</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G79" t="s">
         <v>195</v>
       </c>
-      <c r="G80" t="str">
+      <c r="H79" t="str">
         <f t="shared" si="1"/>
         <v>编号76</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80">
         <v>77</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C80" t="s">
         <v>614</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D80" t="s">
         <v>196</v>
       </c>
-      <c r="D81">
-        <v>513</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="E80">
+        <v>513</v>
+      </c>
+      <c r="F80" t="s">
         <v>197</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G80" t="s">
         <v>198</v>
       </c>
-      <c r="G81" t="str">
+      <c r="H80" t="str">
         <f t="shared" si="1"/>
         <v>编号77</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>78</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C81" t="s">
         <v>614</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D81" t="s">
         <v>199</v>
       </c>
-      <c r="D82">
-        <v>513</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="E81">
+        <v>513</v>
+      </c>
+      <c r="F81" t="s">
         <v>141</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G81" t="s">
         <v>200</v>
       </c>
-      <c r="G82" t="str">
+      <c r="H81" t="str">
         <f t="shared" si="1"/>
         <v>编号78</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>79</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C82" t="s">
         <v>614</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D82" t="s">
         <v>201</v>
       </c>
-      <c r="D83">
-        <v>513</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="E82">
+        <v>513</v>
+      </c>
+      <c r="F82" t="s">
         <v>202</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G82" t="s">
         <v>203</v>
       </c>
-      <c r="G83" t="str">
+      <c r="H82" t="str">
         <f t="shared" si="1"/>
         <v>编号79</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>80</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C83" t="s">
         <v>615</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D83" t="s">
         <v>204</v>
       </c>
-      <c r="D84">
-        <v>513</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="E83">
+        <v>513</v>
+      </c>
+      <c r="F83" t="s">
         <v>205</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G83" t="s">
         <v>206</v>
       </c>
-      <c r="G84" t="str">
+      <c r="H83" t="str">
         <f t="shared" si="1"/>
         <v>编号80</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>81</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C84" t="s">
         <v>615</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D84" t="s">
         <v>207</v>
       </c>
-      <c r="D85">
-        <v>513</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="E84">
+        <v>513</v>
+      </c>
+      <c r="F84" t="s">
         <v>208</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G84" t="s">
         <v>209</v>
       </c>
-      <c r="G85" t="str">
+      <c r="H84" t="str">
         <f t="shared" si="1"/>
         <v>编号81</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>82</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C85" t="s">
         <v>615</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D85" t="s">
         <v>210</v>
       </c>
-      <c r="D86">
-        <v>513</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="E85">
+        <v>513</v>
+      </c>
+      <c r="F85" t="s">
         <v>51</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G85" t="s">
         <v>211</v>
       </c>
-      <c r="G86" t="str">
+      <c r="H85" t="str">
         <f t="shared" si="1"/>
         <v>编号82</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>83</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C86" t="s">
         <v>615</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D86" t="s">
         <v>212</v>
       </c>
-      <c r="D87">
-        <v>513</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="E86">
+        <v>513</v>
+      </c>
+      <c r="F86" t="s">
         <v>54</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G86" t="s">
         <v>213</v>
       </c>
-      <c r="G87" t="str">
+      <c r="H86" t="str">
         <f t="shared" si="1"/>
         <v>编号83</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>84</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C87" t="s">
         <v>616</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D87" t="s">
         <v>214</v>
       </c>
-      <c r="D88">
-        <v>513</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E87">
+        <v>513</v>
+      </c>
+      <c r="F87" t="s">
         <v>215</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G87" t="s">
         <v>216</v>
       </c>
-      <c r="G88" t="str">
+      <c r="H87" t="str">
         <f t="shared" si="1"/>
         <v>编号84</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>85</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C88" t="s">
         <v>616</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D88" t="s">
         <v>217</v>
       </c>
-      <c r="D89">
-        <v>513</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="E88">
+        <v>513</v>
+      </c>
+      <c r="F88" t="s">
         <v>218</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G88" t="s">
         <v>219</v>
       </c>
-      <c r="G89" t="str">
+      <c r="H88" t="str">
         <f t="shared" si="1"/>
         <v>编号85</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>86</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C89" t="s">
         <v>616</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D89" t="s">
         <v>220</v>
       </c>
-      <c r="D90">
-        <v>513</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="E89">
+        <v>513</v>
+      </c>
+      <c r="F89" t="s">
         <v>221</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G89" t="s">
         <v>222</v>
       </c>
-      <c r="G90" t="str">
+      <c r="H89" t="str">
         <f t="shared" si="1"/>
         <v>编号86</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>87</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C90" t="s">
         <v>616</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D90" t="s">
         <v>223</v>
       </c>
-      <c r="D91">
-        <v>513</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="E90">
+        <v>513</v>
+      </c>
+      <c r="F90" t="s">
         <v>224</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G90" t="s">
         <v>225</v>
       </c>
-      <c r="G91" t="str">
+      <c r="H90" t="str">
         <f t="shared" si="1"/>
         <v>编号87</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91">
         <v>88</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C91" t="s">
         <v>617</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D91" t="s">
         <v>226</v>
       </c>
-      <c r="D92">
-        <v>513</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="E91">
+        <v>513</v>
+      </c>
+      <c r="F91" t="s">
         <v>227</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G91" t="s">
         <v>228</v>
       </c>
-      <c r="G92" t="str">
+      <c r="H91" t="str">
         <f t="shared" si="1"/>
         <v>编号88</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92">
         <v>89</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C92" t="s">
         <v>617</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D92" t="s">
         <v>229</v>
       </c>
-      <c r="D93">
-        <v>513</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="E92">
+        <v>513</v>
+      </c>
+      <c r="F92" t="s">
         <v>230</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G92" t="s">
         <v>231</v>
       </c>
-      <c r="G93" t="str">
+      <c r="H92" t="str">
         <f t="shared" si="1"/>
         <v>编号89</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>90</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C93" t="s">
         <v>617</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D93" t="s">
         <v>232</v>
       </c>
-      <c r="D94">
-        <v>513</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="E93">
+        <v>513</v>
+      </c>
+      <c r="F93" t="s">
         <v>233</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G93" t="s">
         <v>177</v>
       </c>
-      <c r="G94" t="str">
+      <c r="H93" t="str">
         <f t="shared" si="1"/>
         <v>编号90</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>91</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C94" t="s">
         <v>617</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D94" t="s">
         <v>234</v>
       </c>
-      <c r="D95">
-        <v>513</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E94">
+        <v>513</v>
+      </c>
+      <c r="G94" t="s">
         <v>235</v>
       </c>
-      <c r="G95" t="str">
+      <c r="H94" t="str">
         <f t="shared" si="1"/>
         <v>编号91</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>92</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C95" t="s">
         <v>617</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D95" t="s">
         <v>236</v>
       </c>
-      <c r="D96">
-        <v>513</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="E95">
+        <v>513</v>
+      </c>
+      <c r="F95" t="s">
         <v>237</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G95" t="s">
         <v>238</v>
       </c>
-      <c r="G96" t="str">
+      <c r="H95" t="str">
         <f t="shared" si="1"/>
         <v>编号92</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>93</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C96" t="s">
         <v>617</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D96" t="s">
         <v>239</v>
       </c>
-      <c r="D97">
-        <v>513</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="E96">
+        <v>513</v>
+      </c>
+      <c r="F96" t="s">
         <v>240</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G96" t="s">
         <v>241</v>
       </c>
-      <c r="G97" t="str">
+      <c r="H96" t="str">
         <f t="shared" si="1"/>
         <v>编号93</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97">
         <v>94</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C97" t="s">
         <v>617</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D97" t="s">
         <v>242</v>
       </c>
-      <c r="D98">
-        <v>513</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="E97">
+        <v>513</v>
+      </c>
+      <c r="F97" t="s">
         <v>243</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G97" t="s">
         <v>244</v>
       </c>
-      <c r="G98" t="str">
+      <c r="H97" t="str">
         <f t="shared" si="1"/>
         <v>编号94</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98">
         <v>95</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C98" t="s">
         <v>617</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D98" t="s">
         <v>245</v>
       </c>
-      <c r="D99">
-        <v>513</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="E98">
+        <v>513</v>
+      </c>
+      <c r="F98" t="s">
         <v>246</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G98" t="s">
         <v>247</v>
       </c>
-      <c r="G99" t="str">
+      <c r="H98" t="str">
         <f t="shared" si="1"/>
         <v>编号95</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99">
         <v>96</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B99">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
         <v>617</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D99" t="s">
         <v>248</v>
       </c>
-      <c r="D100">
-        <v>513</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="E99">
+        <v>513</v>
+      </c>
+      <c r="F99" t="s">
         <v>249</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G99" t="s">
         <v>250</v>
       </c>
-      <c r="G100" t="str">
+      <c r="H99" t="str">
         <f t="shared" si="1"/>
         <v>编号96</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100">
         <v>97</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B100">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
         <v>617</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D100" t="s">
         <v>251</v>
       </c>
-      <c r="D101">
-        <v>513</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="E100">
+        <v>513</v>
+      </c>
+      <c r="F100" t="s">
         <v>240</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G100" t="s">
         <v>252</v>
       </c>
-      <c r="G101" t="str">
+      <c r="H100" t="str">
         <f t="shared" si="1"/>
         <v>编号97</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101">
         <v>98</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B101">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
         <v>617</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D101" t="s">
         <v>253</v>
       </c>
-      <c r="D102">
-        <v>513</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="E101">
+        <v>513</v>
+      </c>
+      <c r="F101" t="s">
         <v>240</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G101" t="s">
         <v>254</v>
       </c>
-      <c r="G102" t="str">
+      <c r="H101" t="str">
         <f t="shared" si="1"/>
         <v>编号98</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102">
         <v>99</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C102" t="s">
         <v>618</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D102" t="s">
         <v>255</v>
       </c>
-      <c r="D103">
-        <v>513</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="E102">
+        <v>513</v>
+      </c>
+      <c r="F102" t="s">
         <v>57</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G102" t="s">
         <v>256</v>
       </c>
-      <c r="G103" t="str">
+      <c r="H102" t="str">
         <f t="shared" si="1"/>
         <v>编号99</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103">
         <v>100</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C103" t="s">
         <v>618</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D103" t="s">
         <v>257</v>
       </c>
-      <c r="D104">
-        <v>513</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="E103">
+        <v>513</v>
+      </c>
+      <c r="F103" t="s">
         <v>61</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G103" t="s">
         <v>258</v>
       </c>
-      <c r="G104" t="str">
+      <c r="H103" t="str">
         <f t="shared" si="1"/>
         <v>编号100</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104">
         <v>101</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C104" t="s">
         <v>618</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D104" t="s">
         <v>259</v>
       </c>
-      <c r="D105">
-        <v>513</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="E104">
+        <v>513</v>
+      </c>
+      <c r="F104" t="s">
         <v>260</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G104" t="s">
         <v>261</v>
       </c>
-      <c r="G105" t="str">
+      <c r="H104" t="str">
         <f t="shared" si="1"/>
         <v>编号101</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105">
         <v>102</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C105" t="s">
         <v>618</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D105" t="s">
         <v>262</v>
       </c>
-      <c r="D106">
-        <v>513</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="E105">
+        <v>513</v>
+      </c>
+      <c r="F105" t="s">
         <v>263</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G105" t="s">
         <v>264</v>
       </c>
-      <c r="G106" t="str">
+      <c r="H105" t="str">
         <f t="shared" si="1"/>
         <v>编号102</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106">
         <v>103</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C106" t="s">
         <v>619</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D106" t="s">
         <v>265</v>
       </c>
-      <c r="D107">
-        <v>513</v>
-      </c>
-      <c r="G107" t="str">
+      <c r="E106">
+        <v>513</v>
+      </c>
+      <c r="H106" t="str">
         <f t="shared" si="1"/>
         <v>编号103</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107">
         <v>104</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C107" t="s">
         <v>619</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D107" t="s">
         <v>266</v>
       </c>
-      <c r="D108">
-        <v>513</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E107">
+        <v>513</v>
+      </c>
+      <c r="G107" t="s">
         <v>267</v>
       </c>
-      <c r="G108" t="str">
+      <c r="H107" t="str">
         <f t="shared" si="1"/>
         <v>编号104</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>105</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C108" t="s">
         <v>619</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D108" t="s">
         <v>268</v>
       </c>
-      <c r="D109">
-        <v>513</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E108">
+        <v>513</v>
+      </c>
+      <c r="G108" t="s">
         <v>269</v>
       </c>
-      <c r="G109" t="str">
+      <c r="H108" t="str">
         <f t="shared" si="1"/>
         <v>编号105</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109">
         <v>106</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C109" t="s">
         <v>619</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D109" t="s">
         <v>270</v>
       </c>
-      <c r="D110">
-        <v>513</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E109">
+        <v>513</v>
+      </c>
+      <c r="G109" t="s">
         <v>271</v>
       </c>
-      <c r="G110" t="str">
+      <c r="H109" t="str">
         <f t="shared" si="1"/>
         <v>编号106</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110">
         <v>107</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C110" t="s">
         <v>619</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D110" t="s">
         <v>272</v>
       </c>
-      <c r="D111">
-        <v>513</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E110">
+        <v>513</v>
+      </c>
+      <c r="G110" t="s">
         <v>273</v>
       </c>
-      <c r="G111" t="str">
+      <c r="H110" t="str">
         <f t="shared" si="1"/>
         <v>编号107</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111">
         <v>108</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C111" t="s">
         <v>619</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D111" t="s">
         <v>274</v>
       </c>
-      <c r="D112">
-        <v>513</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E111">
+        <v>513</v>
+      </c>
+      <c r="G111" t="s">
         <v>275</v>
       </c>
-      <c r="G112" t="str">
+      <c r="H111" t="str">
         <f t="shared" si="1"/>
         <v>编号108</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112">
         <v>109</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C112" t="s">
         <v>619</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D112" t="s">
         <v>276</v>
       </c>
-      <c r="D113">
-        <v>513</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E112">
+        <v>513</v>
+      </c>
+      <c r="G112" t="s">
         <v>277</v>
       </c>
-      <c r="G113" t="str">
+      <c r="H112" t="str">
         <f t="shared" si="1"/>
         <v>编号109</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113">
         <v>110</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C113" t="s">
         <v>619</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D113" t="s">
         <v>278</v>
       </c>
-      <c r="D114">
-        <v>513</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="E113">
+        <v>513</v>
+      </c>
+      <c r="G113" t="s">
         <v>279</v>
       </c>
-      <c r="G114" t="str">
+      <c r="H113" t="str">
         <f t="shared" si="1"/>
         <v>编号110</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114">
         <v>111</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C114" t="s">
         <v>619</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D114" t="s">
         <v>280</v>
       </c>
-      <c r="D115">
-        <v>513</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E114">
+        <v>513</v>
+      </c>
+      <c r="G114" t="s">
         <v>281</v>
       </c>
-      <c r="G115" t="str">
+      <c r="H114" t="str">
         <f t="shared" si="1"/>
         <v>编号111</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115">
         <v>112</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C115" t="s">
         <v>619</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D115" t="s">
         <v>282</v>
       </c>
-      <c r="D116">
-        <v>513</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="E115">
+        <v>513</v>
+      </c>
+      <c r="G115" t="s">
         <v>283</v>
       </c>
-      <c r="G116" t="str">
+      <c r="H115" t="str">
         <f t="shared" si="1"/>
         <v>编号112</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116">
         <v>113</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C116" t="s">
         <v>620</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D116" t="s">
         <v>284</v>
       </c>
-      <c r="D117">
-        <v>513</v>
-      </c>
-      <c r="G117" t="str">
+      <c r="E116">
+        <v>513</v>
+      </c>
+      <c r="H116" t="str">
         <f t="shared" si="1"/>
         <v>编号113</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117">
         <v>114</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C117" t="s">
         <v>620</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D117" t="s">
         <v>285</v>
       </c>
-      <c r="D118">
-        <v>513</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="E117">
+        <v>513</v>
+      </c>
+      <c r="G117" t="s">
         <v>286</v>
       </c>
-      <c r="G118" t="str">
+      <c r="H117" t="str">
         <f t="shared" si="1"/>
         <v>编号114</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118">
         <v>115</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C118" t="s">
         <v>620</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D118" t="s">
         <v>287</v>
       </c>
-      <c r="D119">
-        <v>513</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E118">
+        <v>513</v>
+      </c>
+      <c r="G118" t="s">
         <v>286</v>
       </c>
-      <c r="G119" t="str">
+      <c r="H118" t="str">
         <f t="shared" si="1"/>
         <v>编号115</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119">
         <v>116</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C119" t="s">
         <v>620</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D119" t="s">
         <v>288</v>
       </c>
-      <c r="D120">
-        <v>513</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="E119">
+        <v>513</v>
+      </c>
+      <c r="G119" t="s">
         <v>289</v>
       </c>
-      <c r="G120" t="str">
+      <c r="H119" t="str">
         <f t="shared" si="1"/>
         <v>编号116</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120">
         <v>117</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C120" t="s">
         <v>620</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D120" t="s">
         <v>290</v>
       </c>
-      <c r="D121">
-        <v>513</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="E120">
+        <v>513</v>
+      </c>
+      <c r="G120" t="s">
         <v>291</v>
       </c>
-      <c r="G121" t="str">
+      <c r="H120" t="str">
         <f t="shared" si="1"/>
         <v>编号117</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121">
         <v>118</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C121" t="s">
         <v>620</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D121" t="s">
         <v>292</v>
       </c>
-      <c r="D122">
-        <v>513</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="E121">
+        <v>513</v>
+      </c>
+      <c r="G121" t="s">
         <v>293</v>
       </c>
-      <c r="G122" t="str">
+      <c r="H121" t="str">
         <f t="shared" si="1"/>
         <v>编号118</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122">
         <v>119</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C122" t="s">
         <v>620</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D122" t="s">
         <v>294</v>
       </c>
-      <c r="D123">
-        <v>513</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="E122">
+        <v>513</v>
+      </c>
+      <c r="G122" t="s">
         <v>295</v>
       </c>
-      <c r="G123" t="str">
+      <c r="H122" t="str">
         <f t="shared" si="1"/>
         <v>编号119</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123">
         <v>120</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C123" t="s">
         <v>620</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D123" t="s">
         <v>296</v>
       </c>
-      <c r="D124">
-        <v>513</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="E123">
+        <v>513</v>
+      </c>
+      <c r="F123" t="s">
         <v>197</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G123" t="s">
         <v>297</v>
       </c>
-      <c r="G124" t="str">
+      <c r="H123" t="str">
         <f t="shared" si="1"/>
         <v>编号120</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124">
         <v>121</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C124" t="s">
         <v>621</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D124" t="s">
         <v>298</v>
       </c>
-      <c r="D125">
-        <v>513</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="E124">
+        <v>513</v>
+      </c>
+      <c r="F124" t="s">
         <v>299</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G124" t="s">
         <v>300</v>
       </c>
-      <c r="G125" t="str">
+      <c r="H124" t="str">
         <f t="shared" si="1"/>
         <v>编号121</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125">
         <v>122</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C125" t="s">
         <v>621</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D125" t="s">
         <v>301</v>
       </c>
-      <c r="D126">
-        <v>513</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="E125">
+        <v>513</v>
+      </c>
+      <c r="F125" t="s">
         <v>302</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G125" t="s">
         <v>303</v>
       </c>
-      <c r="G126" t="str">
+      <c r="H125" t="str">
         <f t="shared" si="1"/>
         <v>编号122</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126">
         <v>123</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C126" t="s">
         <v>621</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D126" t="s">
         <v>304</v>
       </c>
-      <c r="D127">
-        <v>513</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="E126">
+        <v>513</v>
+      </c>
+      <c r="G126" t="s">
         <v>305</v>
       </c>
-      <c r="G127" t="str">
+      <c r="H126" t="str">
         <f t="shared" si="1"/>
         <v>编号123</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127">
         <v>124</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C127" t="s">
         <v>621</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D127" t="s">
         <v>306</v>
       </c>
-      <c r="D128">
-        <v>513</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E127">
+        <v>513</v>
+      </c>
+      <c r="G127" t="s">
         <v>307</v>
       </c>
-      <c r="G128" t="str">
+      <c r="H127" t="str">
         <f t="shared" si="1"/>
         <v>编号124</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128">
         <v>125</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C128" t="s">
         <v>621</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D128" t="s">
         <v>308</v>
       </c>
-      <c r="D129">
-        <v>513</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E128">
+        <v>513</v>
+      </c>
+      <c r="G128" t="s">
         <v>309</v>
       </c>
-      <c r="G129" t="str">
+      <c r="H128" t="str">
         <f t="shared" si="1"/>
         <v>编号125</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129">
         <v>126</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C129" t="s">
         <v>621</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D129" t="s">
         <v>310</v>
       </c>
-      <c r="D130">
-        <v>513</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E129">
+        <v>513</v>
+      </c>
+      <c r="G129" t="s">
         <v>311</v>
       </c>
-      <c r="G130" t="str">
+      <c r="H129" t="str">
         <f t="shared" si="1"/>
         <v>编号126</v>
       </c>
@@ -9906,15 +9921,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" t="s">
         <v>649</v>
-      </c>
-      <c r="B1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9922,7 +9937,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9930,7 +9945,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9938,7 +9953,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -9946,7 +9961,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -9954,7 +9969,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9962,7 +9977,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -9970,7 +9985,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -9978,7 +9993,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -9986,7 +10001,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -9994,7 +10009,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -10002,7 +10017,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -10010,7 +10025,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10018,7 +10033,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10026,7 +10041,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10034,7 +10049,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -10042,7 +10057,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10050,7 +10065,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -10058,7 +10073,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -10066,7 +10081,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -10074,7 +10089,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10082,7 +10097,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -10090,7 +10105,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -10098,7 +10113,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B25">
         <v>1</v>
